--- a/meta/test/03_GetTableSample4.xlsx
+++ b/meta/test/03_GetTableSample4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestAutotest/meta/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6341C35E-AB6A-354E-BE34-5D6800007C16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839133DB-BAFB-5145-8747-D48643DDDD25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19000" yWindow="3740" windowWidth="26200" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12200" yWindow="3740" windowWidth="26200" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>2.定義書様式に記入された情報から、メタファイルをXMLファイルに変換する処理の定義に相当するJavaソースコードが自動生成されます。</t>
   </si>
@@ -623,6 +623,10 @@
   </si>
   <si>
     <t>reason[]</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -2621,6 +2625,72 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="93" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="94" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="83" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="95" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2638,72 +2708,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="93" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="94" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="83" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="95" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -3282,20 +3286,20 @@
       <c r="J19" s="140"/>
       <c r="K19" s="140"/>
       <c r="L19" s="141"/>
-      <c r="M19" s="189" t="s">
+      <c r="M19" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="190"/>
-      <c r="O19" s="190"/>
-      <c r="P19" s="190"/>
-      <c r="Q19" s="190"/>
-      <c r="R19" s="189" t="s">
+      <c r="N19" s="212"/>
+      <c r="O19" s="212"/>
+      <c r="P19" s="212"/>
+      <c r="Q19" s="212"/>
+      <c r="R19" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="S19" s="190"/>
-      <c r="T19" s="190"/>
-      <c r="U19" s="190"/>
-      <c r="V19" s="190"/>
+      <c r="S19" s="212"/>
+      <c r="T19" s="212"/>
+      <c r="U19" s="212"/>
+      <c r="V19" s="212"/>
       <c r="W19" s="142"/>
     </row>
     <row r="20" spans="1:23" ht="12.75" customHeight="1">
@@ -3313,20 +3317,20 @@
       <c r="J20" s="117"/>
       <c r="K20" s="117"/>
       <c r="L20" s="143"/>
-      <c r="M20" s="187" t="s">
+      <c r="M20" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="188"/>
-      <c r="O20" s="188"/>
-      <c r="P20" s="188"/>
-      <c r="Q20" s="188"/>
-      <c r="R20" s="187" t="s">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="210"/>
+      <c r="Q20" s="210"/>
+      <c r="R20" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="S20" s="188"/>
-      <c r="T20" s="188"/>
-      <c r="U20" s="188"/>
-      <c r="V20" s="188"/>
+      <c r="S20" s="210"/>
+      <c r="T20" s="210"/>
+      <c r="U20" s="210"/>
+      <c r="V20" s="210"/>
       <c r="W20" s="117"/>
     </row>
     <row r="21" spans="1:23" ht="23" customHeight="1">
@@ -5766,8 +5770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2255131-13B1-484A-9393-AFEFC966B3D8}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -5931,13 +5935,13 @@
       <c r="D13" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="191" t="s">
+      <c r="E13" s="213" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
     </row>
     <row r="14" spans="1:9" s="169" customFormat="1" ht="15" thickBot="1">
       <c r="A14" s="166">
@@ -5975,19 +5979,19 @@
       </c>
       <c r="C15" s="173"/>
       <c r="D15" s="173"/>
-      <c r="E15" s="193" t="s">
+      <c r="E15" s="187" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="194" t="s">
+      <c r="F15" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="194" t="s">
+      <c r="G15" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="195" t="s">
+      <c r="H15" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="196" t="s">
+      <c r="I15" s="190" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6012,10 +6016,10 @@
       <c r="G16" s="174" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="197" t="s">
+      <c r="H16" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="198" t="s">
+      <c r="I16" s="192" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6040,10 +6044,10 @@
       <c r="G17" s="174" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="197" t="s">
+      <c r="H17" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="I17" s="198"/>
+      <c r="I17" s="192"/>
     </row>
     <row r="18" spans="1:10" s="169" customFormat="1">
       <c r="A18" s="166">
@@ -6066,10 +6070,10 @@
       <c r="G18" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="197" t="s">
+      <c r="H18" s="191" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="198" t="s">
+      <c r="I18" s="192" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6088,8 +6092,8 @@
       <c r="G19" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="199"/>
-      <c r="I19" s="200"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="194"/>
     </row>
     <row r="20" spans="1:10" s="169" customFormat="1" ht="15" thickBot="1">
       <c r="A20" s="166">
@@ -6104,12 +6108,12 @@
       <c r="E20" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="201"/>
-      <c r="G20" s="202" t="s">
+      <c r="F20" s="195"/>
+      <c r="G20" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="203"/>
-      <c r="I20" s="204"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="198"/>
     </row>
     <row r="21" spans="1:10" s="169" customFormat="1">
       <c r="A21" s="166">
@@ -6121,19 +6125,19 @@
       </c>
       <c r="C21" s="173"/>
       <c r="D21" s="173"/>
-      <c r="E21" s="193" t="s">
+      <c r="E21" s="187" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="194" t="s">
+      <c r="F21" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="194" t="s">
+      <c r="G21" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="195" t="s">
+      <c r="H21" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="I21" s="196" t="s">
+      <c r="I21" s="190" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6148,7 +6152,7 @@
       <c r="C22" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="205" t="s">
+      <c r="D22" s="199" t="s">
         <v>110</v>
       </c>
       <c r="E22" s="178" t="s">
@@ -6156,10 +6160,10 @@
       </c>
       <c r="F22" s="174"/>
       <c r="G22" s="174"/>
-      <c r="H22" s="197" t="s">
+      <c r="H22" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="I22" s="198" t="s">
+      <c r="I22" s="192" t="s">
         <v>100</v>
       </c>
       <c r="J22" s="176"/>
@@ -6173,7 +6177,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="170"/>
-      <c r="D23" s="200" t="s">
+      <c r="D23" s="194" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="175"/>
@@ -6181,8 +6185,8 @@
       <c r="G23" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="199"/>
-      <c r="I23" s="200"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="194"/>
       <c r="J23" s="176"/>
     </row>
     <row r="24" spans="1:10" s="169" customFormat="1">
@@ -6194,18 +6198,20 @@
         <v>62</v>
       </c>
       <c r="C24" s="170"/>
-      <c r="D24" s="206"/>
+      <c r="D24" s="200"/>
       <c r="E24" s="178" t="s">
         <v>101</v>
       </c>
       <c r="F24" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="174"/>
-      <c r="H24" s="197" t="s">
+      <c r="G24" s="174" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="198"/>
+      <c r="I24" s="192"/>
       <c r="J24" s="176"/>
     </row>
     <row r="25" spans="1:10" s="169" customFormat="1">
@@ -6217,14 +6223,14 @@
         <v>20</v>
       </c>
       <c r="C25" s="170"/>
-      <c r="D25" s="200"/>
+      <c r="D25" s="194"/>
       <c r="E25" s="175"/>
       <c r="F25" s="81"/>
       <c r="G25" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="199"/>
-      <c r="I25" s="200"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="194"/>
       <c r="J25" s="176"/>
     </row>
     <row r="26" spans="1:10" s="169" customFormat="1">
@@ -6236,7 +6242,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="170"/>
-      <c r="D26" s="206"/>
+      <c r="D26" s="200"/>
       <c r="E26" s="178" t="s">
         <v>103</v>
       </c>
@@ -6246,10 +6252,10 @@
       <c r="G26" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="197" t="s">
+      <c r="H26" s="191" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="198" t="s">
+      <c r="I26" s="192" t="s">
         <v>107</v>
       </c>
       <c r="J26" s="176"/>
@@ -6263,14 +6269,14 @@
         <v>20</v>
       </c>
       <c r="C27" s="170"/>
-      <c r="D27" s="200"/>
+      <c r="D27" s="194"/>
       <c r="E27" s="175"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="199"/>
-      <c r="I27" s="200"/>
+      <c r="H27" s="193"/>
+      <c r="I27" s="194"/>
       <c r="J27" s="176"/>
     </row>
     <row r="28" spans="1:10" s="169" customFormat="1" ht="15" thickBot="1">
@@ -6282,16 +6288,16 @@
         <v>20</v>
       </c>
       <c r="C28" s="170"/>
-      <c r="D28" s="200"/>
+      <c r="D28" s="194"/>
       <c r="E28" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="201"/>
-      <c r="G28" s="202" t="s">
+      <c r="F28" s="195"/>
+      <c r="G28" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="203"/>
-      <c r="I28" s="204"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="198"/>
       <c r="J28" s="176"/>
     </row>
     <row r="29" spans="1:10" s="169" customFormat="1">
@@ -6304,22 +6310,22 @@
       </c>
       <c r="C29" s="173"/>
       <c r="D29" s="173"/>
-      <c r="E29" s="193" t="s">
+      <c r="E29" s="187" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="194" t="s">
+      <c r="F29" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="194" t="s">
+      <c r="G29" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="207" t="s">
+      <c r="I29" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="208"/>
+      <c r="J29" s="202"/>
     </row>
     <row r="30" spans="1:10" s="169" customFormat="1">
       <c r="A30" s="166">
@@ -6332,16 +6338,16 @@
       <c r="C30" s="168">
         <v>2</v>
       </c>
-      <c r="D30" s="205" t="s">
+      <c r="D30" s="199" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="209"/>
-      <c r="G30" s="209"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="203"/>
       <c r="H30" s="177"/>
-      <c r="I30" s="210"/>
+      <c r="I30" s="204"/>
       <c r="J30" s="176"/>
     </row>
     <row r="31" spans="1:10" s="169" customFormat="1">
@@ -6356,13 +6362,13 @@
       <c r="D31" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="211" t="s">
+      <c r="E31" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="209"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="210"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="203"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="204"/>
       <c r="J31" s="176"/>
     </row>
     <row r="32" spans="1:10" s="169" customFormat="1" ht="15" thickBot="1">
@@ -6374,12 +6380,12 @@
         <v>20</v>
       </c>
       <c r="C32" s="180"/>
-      <c r="D32" s="202"/>
-      <c r="E32" s="212"/>
-      <c r="F32" s="213"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="214"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/meta/test/03_GetTableSample4.xlsx
+++ b/meta/test/03_GetTableSample4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestAutotest/meta/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839133DB-BAFB-5145-8747-D48643DDDD25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F69F5E-18C3-0145-B007-4AF4E877F7B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12200" yWindow="3740" windowWidth="26200" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="119">
   <si>
     <t>2.定義書様式に記入された情報から、メタファイルをXMLファイルに変換する処理の定義に相当するJavaソースコードが自動生成されます。</t>
   </si>
@@ -567,10 +567,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>目視審査1検討</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>1610661270000</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -595,10 +591,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>目視審査3OK</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>紹介</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -628,6 +620,26 @@
   <si>
     <t>[]</t>
     <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>numList[]</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>目視1検討</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>目視3OK</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -804,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="100">
+  <borders count="96">
     <border>
       <left/>
       <right/>
@@ -1808,32 +1820,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -2037,42 +2023,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2097,7 +2051,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2326,9 +2280,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2577,10 +2528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2589,22 +2537,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="82" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="84" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2613,101 +2561,110 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="89" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="90" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="81" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="93" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="93" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="94" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="83" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="95" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -3083,9 +3040,9 @@
         <v>79</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="96"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
@@ -3093,14 +3050,14 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="93" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="94"/>
       <c r="H6" s="77"/>
       <c r="I6" s="77"/>
       <c r="J6" s="77"/>
@@ -3111,14 +3068,14 @@
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="93" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="95"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="77"/>
       <c r="I7" s="77"/>
       <c r="J7" s="77"/>
@@ -3129,14 +3086,14 @@
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="93" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="94"/>
       <c r="H8" s="77"/>
       <c r="I8" s="77"/>
       <c r="J8" s="77"/>
@@ -3144,17 +3101,17 @@
       <c r="L8" s="77"/>
     </row>
     <row r="9" spans="1:18" s="64" customFormat="1" ht="14">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="162" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="95"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
       <c r="H9" s="77"/>
       <c r="I9" s="77"/>
       <c r="J9" s="77"/>
@@ -3274,133 +3231,133 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A19" s="139"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="211" t="s">
+      <c r="A19" s="138"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="212"/>
-      <c r="O19" s="212"/>
-      <c r="P19" s="212"/>
-      <c r="Q19" s="212"/>
-      <c r="R19" s="211" t="s">
+      <c r="N19" s="202"/>
+      <c r="O19" s="202"/>
+      <c r="P19" s="202"/>
+      <c r="Q19" s="202"/>
+      <c r="R19" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="S19" s="212"/>
-      <c r="T19" s="212"/>
-      <c r="U19" s="212"/>
-      <c r="V19" s="212"/>
-      <c r="W19" s="142"/>
+      <c r="S19" s="202"/>
+      <c r="T19" s="202"/>
+      <c r="U19" s="202"/>
+      <c r="V19" s="202"/>
+      <c r="W19" s="141"/>
     </row>
     <row r="20" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A20" s="117"/>
-      <c r="B20" s="118" t="s">
+      <c r="A20" s="116"/>
+      <c r="B20" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="209" t="s">
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="210"/>
-      <c r="Q20" s="210"/>
-      <c r="R20" s="209" t="s">
+      <c r="N20" s="200"/>
+      <c r="O20" s="200"/>
+      <c r="P20" s="200"/>
+      <c r="Q20" s="200"/>
+      <c r="R20" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="S20" s="210"/>
-      <c r="T20" s="210"/>
-      <c r="U20" s="210"/>
-      <c r="V20" s="210"/>
-      <c r="W20" s="117"/>
+      <c r="S20" s="200"/>
+      <c r="T20" s="200"/>
+      <c r="U20" s="200"/>
+      <c r="V20" s="200"/>
+      <c r="W20" s="116"/>
     </row>
     <row r="21" spans="1:23" ht="23" customHeight="1">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="161" t="s">
+      <c r="C21" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="161" t="s">
+      <c r="D21" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="160" t="s">
+      <c r="E21" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="160" t="s">
+      <c r="F21" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="160" t="s">
+      <c r="G21" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="160" t="s">
+      <c r="H21" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="160" t="s">
+      <c r="I21" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="160" t="s">
+      <c r="J21" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="160" t="s">
+      <c r="K21" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="164" t="s">
+      <c r="L21" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="M21" s="160" t="s">
+      <c r="M21" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="N21" s="160" t="s">
+      <c r="N21" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="160" t="s">
+      <c r="O21" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="P21" s="160" t="s">
+      <c r="P21" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="Q21" s="160" t="s">
+      <c r="Q21" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="R21" s="160" t="s">
+      <c r="R21" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="S21" s="160" t="s">
+      <c r="S21" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="T21" s="160" t="s">
+      <c r="T21" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="U21" s="160" t="s">
+      <c r="U21" s="159" t="s">
         <v>75</v>
       </c>
-      <c r="V21" s="160" t="s">
+      <c r="V21" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="W21" s="160" t="s">
+      <c r="W21" s="159" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3408,181 +3365,181 @@
       <c r="A22" s="37">
         <v>1</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="97" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="149" t="s">
+      <c r="D22" s="148" t="s">
         <v>93</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="122" t="b">
+      <c r="F22" s="121" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="152">
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="151">
         <v>1</v>
       </c>
-      <c r="M22" s="153"/>
-      <c r="N22" s="154"/>
-      <c r="O22" s="155" t="s">
+      <c r="M22" s="152"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="P22" s="155" t="s">
+      <c r="P22" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="Q22" s="153" t="s">
+      <c r="Q22" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="R22" s="153"/>
-      <c r="S22" s="154"/>
-      <c r="T22" s="155" t="s">
+      <c r="R22" s="152"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="U22" s="155" t="s">
+      <c r="U22" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="153" t="s">
+      <c r="V22" s="152" t="s">
         <v>40</v>
       </c>
       <c r="W22" s="37"/>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1">
       <c r="A23" s="18"/>
-      <c r="B23" s="98"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="149"/>
+      <c r="D23" s="148"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="123"/>
+      <c r="F23" s="122"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="L23" s="18"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="135"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="137"/>
-      <c r="V23" s="128"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="131"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="136"/>
+      <c r="V23" s="127"/>
       <c r="W23" s="18"/>
     </row>
     <row r="24" spans="1:23" ht="12.75" customHeight="1">
       <c r="A24" s="18"/>
-      <c r="B24" s="144"/>
+      <c r="B24" s="143"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="149"/>
+      <c r="D24" s="148"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="123"/>
+      <c r="F24" s="122"/>
       <c r="G24" s="18"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="128"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="137"/>
-      <c r="V24" s="128"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="136"/>
+      <c r="V24" s="127"/>
       <c r="W24" s="18"/>
     </row>
     <row r="25" spans="1:23" ht="12.75" customHeight="1">
       <c r="A25" s="18"/>
-      <c r="B25" s="145"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="150"/>
+      <c r="D25" s="149"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="123"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="18"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="18"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="133"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="133"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="137"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="98"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="136"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="136"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="97"/>
     </row>
     <row r="26" spans="1:23" ht="12.75" customHeight="1">
       <c r="A26" s="13"/>
-      <c r="B26" s="145"/>
+      <c r="B26" s="144"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="150"/>
+      <c r="D26" s="149"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="151"/>
+      <c r="F26" s="150"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="133"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="133"/>
-      <c r="T26" s="136"/>
-      <c r="U26" s="138"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="157"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="156"/>
     </row>
     <row r="27" spans="1:23" ht="12.75" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="146"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="146"/>
+      <c r="D27" s="145"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="122"/>
+      <c r="F27" s="121"/>
       <c r="G27" s="16"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="134"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="129"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
-      <c r="V27" s="127"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="130"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="133"/>
+      <c r="V27" s="126"/>
       <c r="W27" s="37"/>
     </row>
     <row r="28" spans="1:23" ht="12.75" customHeight="1">
       <c r="A28" s="18"/>
-      <c r="B28" s="147"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="147"/>
+      <c r="D28" s="146"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -3591,23 +3548,23 @@
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
       <c r="L28" s="18"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="137"/>
-      <c r="V28" s="128"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="127"/>
       <c r="W28" s="18"/>
     </row>
     <row r="29" spans="1:23" ht="12.75" customHeight="1">
       <c r="A29" s="18"/>
-      <c r="B29" s="147"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="149"/>
+      <c r="D29" s="148"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -3616,23 +3573,23 @@
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
       <c r="L29" s="18"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="128"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="137"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="98"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="136"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="97"/>
     </row>
     <row r="30" spans="1:23" ht="12.75" customHeight="1">
       <c r="A30" s="18"/>
-      <c r="B30" s="147"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="147"/>
+      <c r="D30" s="146"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -3641,48 +3598,48 @@
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="18"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="133"/>
-      <c r="O30" s="135"/>
-      <c r="P30" s="137"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="133"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="137"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="159"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="136"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="136"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="158"/>
     </row>
     <row r="31" spans="1:23" ht="12.75" customHeight="1">
       <c r="A31" s="13"/>
-      <c r="B31" s="145"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="150"/>
+      <c r="D31" s="149"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="124"/>
+      <c r="F31" s="123"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
       <c r="L31" s="13"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="133"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="138"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="133"/>
-      <c r="T31" s="136"/>
-      <c r="U31" s="138"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="158"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="157"/>
     </row>
     <row r="32" spans="1:23" ht="12.75" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="97"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="148"/>
+      <c r="D32" s="147"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -3691,16 +3648,16 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="134"/>
-      <c r="P32" s="134"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="131"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="134"/>
-      <c r="V32" s="127"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="133"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="126"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="130"/>
+      <c r="T32" s="133"/>
+      <c r="U32" s="133"/>
+      <c r="V32" s="126"/>
     </row>
     <row r="33" spans="1:23" ht="12.75" customHeight="1">
       <c r="A33" s="18"/>
@@ -4078,279 +4035,279 @@
       <c r="W47" s="17"/>
     </row>
     <row r="48" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A48" s="99"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="103"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="103"/>
-      <c r="O48" s="103"/>
-      <c r="P48" s="103"/>
-      <c r="Q48" s="104"/>
-      <c r="R48" s="102"/>
-      <c r="S48" s="103"/>
-      <c r="T48" s="103"/>
-      <c r="U48" s="103"/>
-      <c r="V48" s="104"/>
-      <c r="W48" s="101"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="101"/>
+      <c r="N48" s="102"/>
+      <c r="O48" s="102"/>
+      <c r="P48" s="102"/>
+      <c r="Q48" s="103"/>
+      <c r="R48" s="101"/>
+      <c r="S48" s="102"/>
+      <c r="T48" s="102"/>
+      <c r="U48" s="102"/>
+      <c r="V48" s="103"/>
+      <c r="W48" s="100"/>
     </row>
     <row r="49" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A49" s="99"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="103"/>
-      <c r="M49" s="102"/>
-      <c r="N49" s="103"/>
-      <c r="O49" s="103"/>
-      <c r="P49" s="103"/>
-      <c r="Q49" s="104"/>
-      <c r="R49" s="102"/>
-      <c r="S49" s="103"/>
-      <c r="T49" s="103"/>
-      <c r="U49" s="103"/>
-      <c r="V49" s="104"/>
-      <c r="W49" s="100"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="101"/>
+      <c r="N49" s="102"/>
+      <c r="O49" s="102"/>
+      <c r="P49" s="102"/>
+      <c r="Q49" s="103"/>
+      <c r="R49" s="101"/>
+      <c r="S49" s="102"/>
+      <c r="T49" s="102"/>
+      <c r="U49" s="102"/>
+      <c r="V49" s="103"/>
+      <c r="W49" s="99"/>
     </row>
     <row r="50" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A50" s="99"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="103"/>
-      <c r="M50" s="102"/>
-      <c r="N50" s="103"/>
-      <c r="O50" s="103"/>
-      <c r="P50" s="103"/>
-      <c r="Q50" s="104"/>
-      <c r="R50" s="102"/>
-      <c r="S50" s="103"/>
-      <c r="T50" s="103"/>
-      <c r="U50" s="103"/>
-      <c r="V50" s="104"/>
-      <c r="W50" s="100"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="101"/>
+      <c r="N50" s="102"/>
+      <c r="O50" s="102"/>
+      <c r="P50" s="102"/>
+      <c r="Q50" s="103"/>
+      <c r="R50" s="101"/>
+      <c r="S50" s="102"/>
+      <c r="T50" s="102"/>
+      <c r="U50" s="102"/>
+      <c r="V50" s="103"/>
+      <c r="W50" s="99"/>
     </row>
     <row r="51" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A51" s="105"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="106"/>
-      <c r="K51" s="106"/>
-      <c r="L51" s="109"/>
-      <c r="M51" s="108"/>
-      <c r="N51" s="109"/>
-      <c r="O51" s="109"/>
-      <c r="P51" s="109"/>
-      <c r="Q51" s="110"/>
-      <c r="R51" s="108"/>
-      <c r="S51" s="109"/>
-      <c r="T51" s="109"/>
-      <c r="U51" s="109"/>
-      <c r="V51" s="110"/>
-      <c r="W51" s="106"/>
+      <c r="A51" s="104"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="107"/>
+      <c r="N51" s="108"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="108"/>
+      <c r="Q51" s="109"/>
+      <c r="R51" s="107"/>
+      <c r="S51" s="108"/>
+      <c r="T51" s="108"/>
+      <c r="U51" s="108"/>
+      <c r="V51" s="109"/>
+      <c r="W51" s="105"/>
     </row>
     <row r="52" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A52" s="111"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="112"/>
-      <c r="K52" s="112"/>
-      <c r="L52" s="115"/>
-      <c r="M52" s="114"/>
-      <c r="N52" s="115"/>
-      <c r="O52" s="115"/>
-      <c r="P52" s="115"/>
-      <c r="Q52" s="116"/>
-      <c r="R52" s="114"/>
-      <c r="S52" s="115"/>
-      <c r="T52" s="115"/>
-      <c r="U52" s="115"/>
-      <c r="V52" s="116"/>
-      <c r="W52" s="112"/>
+      <c r="A52" s="110"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="114"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="115"/>
+      <c r="R52" s="113"/>
+      <c r="S52" s="114"/>
+      <c r="T52" s="114"/>
+      <c r="U52" s="114"/>
+      <c r="V52" s="115"/>
+      <c r="W52" s="111"/>
     </row>
     <row r="53" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A53" s="99"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="103"/>
-      <c r="M53" s="102"/>
-      <c r="N53" s="103"/>
-      <c r="O53" s="103"/>
-      <c r="P53" s="103"/>
-      <c r="Q53" s="104"/>
-      <c r="R53" s="102"/>
-      <c r="S53" s="103"/>
-      <c r="T53" s="103"/>
-      <c r="U53" s="103"/>
-      <c r="V53" s="104"/>
-      <c r="W53" s="100"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="101"/>
+      <c r="N53" s="102"/>
+      <c r="O53" s="102"/>
+      <c r="P53" s="102"/>
+      <c r="Q53" s="103"/>
+      <c r="R53" s="101"/>
+      <c r="S53" s="102"/>
+      <c r="T53" s="102"/>
+      <c r="U53" s="102"/>
+      <c r="V53" s="103"/>
+      <c r="W53" s="99"/>
     </row>
     <row r="54" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A54" s="99"/>
-      <c r="B54" s="100"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="103"/>
-      <c r="M54" s="102"/>
-      <c r="N54" s="103"/>
-      <c r="O54" s="103"/>
-      <c r="P54" s="103"/>
-      <c r="Q54" s="104"/>
-      <c r="R54" s="102"/>
-      <c r="S54" s="103"/>
-      <c r="T54" s="103"/>
-      <c r="U54" s="103"/>
-      <c r="V54" s="104"/>
-      <c r="W54" s="100"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="102"/>
+      <c r="M54" s="101"/>
+      <c r="N54" s="102"/>
+      <c r="O54" s="102"/>
+      <c r="P54" s="102"/>
+      <c r="Q54" s="103"/>
+      <c r="R54" s="101"/>
+      <c r="S54" s="102"/>
+      <c r="T54" s="102"/>
+      <c r="U54" s="102"/>
+      <c r="V54" s="103"/>
+      <c r="W54" s="99"/>
     </row>
     <row r="55" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A55" s="99"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="100"/>
-      <c r="L55" s="103"/>
-      <c r="M55" s="102"/>
-      <c r="N55" s="103"/>
-      <c r="O55" s="103"/>
-      <c r="P55" s="103"/>
-      <c r="Q55" s="104"/>
-      <c r="R55" s="102"/>
-      <c r="S55" s="103"/>
-      <c r="T55" s="103"/>
-      <c r="U55" s="103"/>
-      <c r="V55" s="104"/>
-      <c r="W55" s="100"/>
+      <c r="A55" s="98"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="102"/>
+      <c r="M55" s="101"/>
+      <c r="N55" s="102"/>
+      <c r="O55" s="102"/>
+      <c r="P55" s="102"/>
+      <c r="Q55" s="103"/>
+      <c r="R55" s="101"/>
+      <c r="S55" s="102"/>
+      <c r="T55" s="102"/>
+      <c r="U55" s="102"/>
+      <c r="V55" s="103"/>
+      <c r="W55" s="99"/>
     </row>
     <row r="56" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A56" s="105"/>
-      <c r="B56" s="106"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="106"/>
-      <c r="L56" s="109"/>
-      <c r="M56" s="108"/>
-      <c r="N56" s="109"/>
-      <c r="O56" s="109"/>
-      <c r="P56" s="109"/>
-      <c r="Q56" s="110"/>
-      <c r="R56" s="108"/>
-      <c r="S56" s="109"/>
-      <c r="T56" s="109"/>
-      <c r="U56" s="109"/>
-      <c r="V56" s="110"/>
-      <c r="W56" s="106"/>
+      <c r="A56" s="104"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="107"/>
+      <c r="N56" s="108"/>
+      <c r="O56" s="108"/>
+      <c r="P56" s="108"/>
+      <c r="Q56" s="109"/>
+      <c r="R56" s="107"/>
+      <c r="S56" s="108"/>
+      <c r="T56" s="108"/>
+      <c r="U56" s="108"/>
+      <c r="V56" s="109"/>
+      <c r="W56" s="105"/>
     </row>
     <row r="57" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A57" s="111"/>
-      <c r="B57" s="112"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="125"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="115"/>
-      <c r="M57" s="114"/>
-      <c r="N57" s="115"/>
-      <c r="O57" s="115"/>
-      <c r="P57" s="115"/>
-      <c r="Q57" s="116"/>
-      <c r="R57" s="114"/>
-      <c r="S57" s="115"/>
-      <c r="T57" s="115"/>
-      <c r="U57" s="115"/>
-      <c r="V57" s="116"/>
-      <c r="W57" s="112"/>
+      <c r="A57" s="110"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="111"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="111"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="114"/>
+      <c r="M57" s="113"/>
+      <c r="N57" s="114"/>
+      <c r="O57" s="114"/>
+      <c r="P57" s="114"/>
+      <c r="Q57" s="115"/>
+      <c r="R57" s="113"/>
+      <c r="S57" s="114"/>
+      <c r="T57" s="114"/>
+      <c r="U57" s="114"/>
+      <c r="V57" s="115"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A58" s="99"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
-      <c r="L58" s="103"/>
-      <c r="M58" s="102"/>
-      <c r="N58" s="103"/>
-      <c r="O58" s="103"/>
-      <c r="P58" s="103"/>
-      <c r="Q58" s="104"/>
-      <c r="R58" s="102"/>
-      <c r="S58" s="103"/>
-      <c r="T58" s="103"/>
-      <c r="U58" s="103"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="100"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="99"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="102"/>
+      <c r="M58" s="101"/>
+      <c r="N58" s="102"/>
+      <c r="O58" s="102"/>
+      <c r="P58" s="102"/>
+      <c r="Q58" s="103"/>
+      <c r="R58" s="101"/>
+      <c r="S58" s="102"/>
+      <c r="T58" s="102"/>
+      <c r="U58" s="102"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="12.75" customHeight="1">
       <c r="A59" s="50"/>
@@ -4433,7 +4390,7 @@
       <c r="C62" s="60"/>
       <c r="D62" s="60"/>
       <c r="E62" s="59"/>
-      <c r="F62" s="126"/>
+      <c r="F62" s="125"/>
       <c r="G62" s="59"/>
       <c r="H62" s="59"/>
       <c r="I62" s="59"/>
@@ -4558,7 +4515,7 @@
       <c r="C67" s="60"/>
       <c r="D67" s="60"/>
       <c r="E67" s="59"/>
-      <c r="F67" s="126"/>
+      <c r="F67" s="125"/>
       <c r="G67" s="59"/>
       <c r="H67" s="59"/>
       <c r="I67" s="59"/>
@@ -4683,7 +4640,7 @@
       <c r="C72" s="60"/>
       <c r="D72" s="60"/>
       <c r="E72" s="59"/>
-      <c r="F72" s="126"/>
+      <c r="F72" s="125"/>
       <c r="G72" s="59"/>
       <c r="H72" s="59"/>
       <c r="I72" s="59"/>
@@ -5768,10 +5725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2255131-13B1-484A-9393-AFEFC966B3D8}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -5779,20 +5736,27 @@
     <col min="1" max="1" width="5.1640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="13" style="12" customWidth="1"/>
-    <col min="4" max="11" width="10.83203125" style="12"/>
+    <col min="4" max="4" width="10.83203125" style="12"/>
+    <col min="5" max="5" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="12"/>
+    <col min="7" max="7" width="14.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="12"/>
     <col min="12" max="12" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="78" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="78"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>82</v>
       </c>
@@ -5803,20 +5767,20 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -5829,7 +5793,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -5842,12 +5806,12 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="119" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="118" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="77"/>
@@ -5855,21 +5819,21 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="78"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="78"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="78"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="156"/>
+      <c r="C11" s="155"/>
       <c r="D11" s="12">
         <v>1</v>
       </c>
@@ -5888,22 +5852,25 @@
       <c r="I11" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="169" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A12" s="181" t="s">
+      <c r="J11" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="168" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A12" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="82" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="79" t="str">
         <f>"Input"&amp;D11</f>
         <v>Input1</v>
       </c>
-      <c r="E12" s="183" t="str">
+      <c r="E12" s="179" t="str">
         <f>"Expect"&amp;E11</f>
         <v>Expect1</v>
       </c>
@@ -5911,485 +5878,672 @@
         <f t="shared" ref="F12:G12" si="0">"Expect"&amp;F11</f>
         <v>Expect2</v>
       </c>
-      <c r="G12" s="184" t="str">
+      <c r="G12" s="180" t="str">
         <f t="shared" si="0"/>
         <v>Expect3</v>
       </c>
-      <c r="H12" s="184" t="str">
+      <c r="H12" s="180" t="str">
         <f t="shared" ref="H12:I12" si="1">"Expect"&amp;H11</f>
         <v>Expect4</v>
       </c>
-      <c r="I12" s="184" t="str">
+      <c r="I12" s="180" t="str">
         <f t="shared" si="1"/>
         <v>Expect5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="169" customFormat="1">
-      <c r="A13" s="166">
+      <c r="J12" s="180" t="str">
+        <f t="shared" ref="J12" si="2">"Expect"&amp;J11</f>
+        <v>Expect6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="168" customFormat="1">
+      <c r="A13" s="165">
         <v>1</v>
       </c>
-      <c r="B13" s="167" t="s">
+      <c r="B13" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="168"/>
-      <c r="D13" s="165" t="s">
+      <c r="C13" s="167"/>
+      <c r="D13" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="213" t="s">
+      <c r="E13" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="214"/>
-    </row>
-    <row r="14" spans="1:9" s="169" customFormat="1" ht="15" thickBot="1">
-      <c r="A14" s="166">
-        <f t="shared" ref="A14:A32" si="2">A13+1</f>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="204"/>
+    </row>
+    <row r="14" spans="1:10" s="168" customFormat="1" ht="15" thickBot="1">
+      <c r="A14" s="165">
+        <f t="shared" ref="A14:A38" si="3">A13+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="171" t="s">
+      <c r="C14" s="169"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="213" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="185" t="s">
+      <c r="F14" s="214" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="186" t="s">
+      <c r="G14" s="214" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="213" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="213" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="213" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="168" customFormat="1">
+      <c r="A15" s="165">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B15" s="170" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="209" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="210" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="210" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="211" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="212" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="212" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="168" customFormat="1">
+      <c r="A16" s="165">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B16" s="164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="167">
+        <v>1</v>
+      </c>
+      <c r="D16" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="205"/>
+      <c r="G16" s="205" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="169" customFormat="1">
-      <c r="A15" s="166">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="B15" s="172" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="187" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="188" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="188" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="189" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="190" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="169" customFormat="1">
-      <c r="A16" s="166">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B16" s="165" t="s">
+      <c r="H16" s="205" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="205" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="165">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B17" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="168">
-        <v>1</v>
-      </c>
-      <c r="D16" s="174" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="178" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="191" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="192" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="169" customFormat="1">
-      <c r="A17" s="166">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B17" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="170"/>
       <c r="D17" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="178" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="174" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="174" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="191" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="192"/>
-    </row>
-    <row r="18" spans="1:10" s="169" customFormat="1">
-      <c r="A18" s="166">
-        <f t="shared" si="2"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="215" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="168" customFormat="1">
+      <c r="A18" s="165">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="170"/>
+      <c r="C18" s="169"/>
       <c r="D18" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="178" t="s">
+      <c r="E18" s="207"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="207" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="168" customFormat="1">
+      <c r="A19" s="165">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="169"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="173" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="187" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="188"/>
+      <c r="J19" s="188" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="168" customFormat="1">
+      <c r="A20" s="165">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="169"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="175" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="174" t="s">
+      <c r="G20" s="172" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="174" t="s">
+      <c r="H20" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="191" t="s">
+      <c r="I20" s="186" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" s="186" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="168" customFormat="1">
+      <c r="A21" s="165">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="169"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="173" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="192" t="s">
+      <c r="H21" s="187"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="188"/>
+    </row>
+    <row r="22" spans="1:10" s="168" customFormat="1" ht="15" thickBot="1">
+      <c r="A22" s="165">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="169"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="190" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="191"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="192"/>
+    </row>
+    <row r="23" spans="1:10" s="168" customFormat="1">
+      <c r="A23" s="165">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B23" s="170" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="181" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="182" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="182" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="183" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="184" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="184" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="168" customFormat="1">
+      <c r="A24" s="165">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B24" s="164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="164" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="169" customFormat="1">
-      <c r="A19" s="166">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="170"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81" t="s">
+      <c r="D24" s="193" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="193"/>
-      <c r="I19" s="194"/>
-    </row>
-    <row r="20" spans="1:10" s="169" customFormat="1" ht="15" thickBot="1">
-      <c r="A20" s="166">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="170"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="179" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="195"/>
-      <c r="G20" s="196" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
-    </row>
-    <row r="21" spans="1:10" s="169" customFormat="1">
-      <c r="A21" s="166">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B21" s="172" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="187" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="188" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="188" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="189" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="190" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="169" customFormat="1">
-      <c r="A22" s="166">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B22" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="199" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="178" t="s">
+      <c r="E24" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="191" t="s">
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="185" t="s">
         <v>99</v>
       </c>
-      <c r="I22" s="192" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="176"/>
-    </row>
-    <row r="23" spans="1:10" s="169" customFormat="1">
-      <c r="A23" s="166">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B23" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="170"/>
-      <c r="D23" s="194" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="175"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="193"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="176"/>
-    </row>
-    <row r="24" spans="1:10" s="169" customFormat="1">
-      <c r="A24" s="166">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B24" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="200"/>
-      <c r="E24" s="178" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="174" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="174" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="191" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="192"/>
-      <c r="J24" s="176"/>
-    </row>
-    <row r="25" spans="1:10" s="169" customFormat="1">
-      <c r="A25" s="166">
-        <f t="shared" si="2"/>
+      <c r="I24" s="186" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="186" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="168" customFormat="1">
+      <c r="A25" s="165">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B25" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="175"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="188" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="173"/>
       <c r="F25" s="81"/>
       <c r="G25" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="193"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="176"/>
-    </row>
-    <row r="26" spans="1:10" s="169" customFormat="1">
-      <c r="A26" s="166">
-        <f t="shared" si="2"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="188" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="168" customFormat="1">
+      <c r="A26" s="165">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B26" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="178" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="174" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="174" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="191" t="s">
-        <v>106</v>
-      </c>
-      <c r="I26" s="192" t="s">
-        <v>107</v>
-      </c>
-      <c r="J26" s="176"/>
-    </row>
-    <row r="27" spans="1:10" s="169" customFormat="1">
-      <c r="A27" s="166">
-        <f t="shared" si="2"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="175" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="172" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="172" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="185" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="186"/>
+      <c r="J26" s="186" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="168" customFormat="1">
+      <c r="A27" s="165">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B27" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="170"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="175"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="173"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="193"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="176"/>
-    </row>
-    <row r="28" spans="1:10" s="169" customFormat="1" ht="15" thickBot="1">
-      <c r="A28" s="166">
-        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="H27" s="187"/>
+      <c r="I27" s="188"/>
+      <c r="J27" s="188"/>
+    </row>
+    <row r="28" spans="1:10" s="168" customFormat="1">
+      <c r="A28" s="165">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B28" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="169"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="175" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="172" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="172" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="185" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="186" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="168" customFormat="1">
+      <c r="A29" s="165">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B29" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="170"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="179" t="s">
+      <c r="C29" s="169"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="173" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="187"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="168" customFormat="1" ht="15" thickBot="1">
+      <c r="A30" s="165">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="169"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="190" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="191"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="192" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="168" customFormat="1">
+      <c r="A31" s="165">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B31" s="170" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="181" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="182" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="182" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="195" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="168" customFormat="1">
+      <c r="A32" s="165">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B32" s="164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="167">
+        <v>2</v>
+      </c>
+      <c r="D32" s="193" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="175" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="196"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="197"/>
+    </row>
+    <row r="33" spans="1:10" s="168" customFormat="1" ht="15" thickBot="1">
+      <c r="A33" s="165">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="169"/>
+      <c r="D33" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="198" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="195"/>
-      <c r="G28" s="196" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="197"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="176"/>
-    </row>
-    <row r="29" spans="1:10" s="169" customFormat="1">
-      <c r="A29" s="166">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B29" s="172" t="s">
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="197"/>
+    </row>
+    <row r="34" spans="1:10" s="168" customFormat="1">
+      <c r="A34" s="165">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B34" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="187" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="188" t="s">
+      <c r="C34" s="171"/>
+      <c r="D34" s="171"/>
+      <c r="E34" s="181" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="188" t="s">
+      <c r="G34" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="190" t="s">
+      <c r="H34" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="201" t="s">
+      <c r="I34" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="202"/>
-    </row>
-    <row r="30" spans="1:10" s="169" customFormat="1">
-      <c r="A30" s="166">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="B30" s="165" t="s">
+      <c r="J34" s="195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="168" customFormat="1">
+      <c r="A35" s="165">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B35" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="168">
-        <v>2</v>
-      </c>
-      <c r="D30" s="199" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="178" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="203"/>
-      <c r="G30" s="203"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="176"/>
-    </row>
-    <row r="31" spans="1:10" s="169" customFormat="1">
-      <c r="A31" s="166">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="B31" s="80" t="s">
+      <c r="C35" s="167">
+        <v>3</v>
+      </c>
+      <c r="D35" s="193" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="175" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="197"/>
+    </row>
+    <row r="36" spans="1:10" s="168" customFormat="1" ht="15" thickBot="1">
+      <c r="A36" s="165">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B36" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="170"/>
-      <c r="D31" s="81" t="s">
+      <c r="C36" s="169"/>
+      <c r="D36" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="205" t="s">
+      <c r="E36" s="198" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="203"/>
-      <c r="G31" s="203"/>
-      <c r="H31" s="203"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="176"/>
-    </row>
-    <row r="32" spans="1:10" s="169" customFormat="1" ht="15" thickBot="1">
-      <c r="A32" s="166">
-        <f t="shared" si="2"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="197"/>
+    </row>
+    <row r="37" spans="1:10" s="168" customFormat="1">
+      <c r="A37" s="165">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B37" s="170" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="181" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="182" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="182" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="195" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="168" customFormat="1">
+      <c r="A38" s="165">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B38" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="180"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="207"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="208"/>
+      <c r="C38" s="167">
+        <v>4</v>
+      </c>
+      <c r="D38" s="193" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="175" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E13:J13"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6426,16 +6580,16 @@
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="83" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6443,7 +6597,7 @@
       <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="84" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="12" t="b">
@@ -6460,7 +6614,7 @@
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="12" t="b">
@@ -6477,7 +6631,7 @@
       <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="86" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="78" t="s">
@@ -6488,7 +6642,7 @@
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="86" t="s">
         <v>29</v>
       </c>
     </row>
